--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2175554.945608414</v>
+        <v>-2178274.346752661</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>128.4512479226537</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95836603255682</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>330.4097104766045</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>88.31286292627462</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.870195912271</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>217.1931215326645</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.3642731739563</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.7606266850056</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>166.043231171907</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>292.3304093648399</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>22.92751588344022</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>233.0913360780293</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>126.2735667341149</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>80.25286948725234</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>45.36631724422188</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>139.593005428874</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794038</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652567</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>180.9955218434109</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>180.9955218434109</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>180.9955218434109</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1486825368356</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1627777472281</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>957.7346938833444</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>567.5953619075327</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>304.708719694602</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>1533.310822863038</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>1364.374639935131</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1214.258000522796</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1066.344906940402</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1066.344906940402</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1066.344906940402</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1066.344906940402</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2236.777441110472</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>2236.777441110472</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1982.092952904585</v>
       </c>
       <c r="W4" t="n">
-        <v>427.1494310484136</v>
+        <v>1982.092952904585</v>
       </c>
       <c r="X4" t="n">
-        <v>199.1598801503962</v>
+        <v>1754.103402006568</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>1533.310822863038</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.446123173937</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.446123173937</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2309.446123173937</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2309.446123173937</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.306791198125</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4756,19 +4756,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1173.832200068228</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>884.4150300312675</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>656.4254791332502</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>1214.090290083872</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.248325790971</v>
+        <v>1214.090290083872</v>
       </c>
       <c r="D8" t="n">
-        <v>743.982627184221</v>
+        <v>855.8245914771219</v>
       </c>
       <c r="E8" t="n">
-        <v>358.1943745859767</v>
+        <v>855.8245914771219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>444.8386866875143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>1214.090290083872</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
@@ -4887,13 +4887,13 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.8852429786115</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786115</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1401.000326056286</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.315837850399</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>1146.315837850399</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X10" t="n">
-        <v>918.3262869523813</v>
+        <v>793.4775118498367</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.5337078088512</v>
+        <v>665.9284545426499</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,46 +5027,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.022181964559</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>778.9055425522232</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>630.9924489698301</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>484.1025014719197</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>316.9064021867997</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,10 +5838,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,19 +7114,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538930051</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>60.35797727397573</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>114.3555089013353</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,16 +8535,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019043</v>
+        <v>6.454437538929881</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>253.4791221496081</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>359.5893367403972</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>235.6455902361436</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.65280242432</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664526</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>65.1681785356789</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.157821048047</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>0.7017074173499225</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215494</v>
+        <v>48691.36674215493</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982125</v>
-      </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26350,10 +26350,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35042.64031981788</v>
+        <v>35042.64031981785</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719703</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="J4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="K4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481318</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481312</v>
       </c>
-      <c r="L4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481314</v>
-      </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194040.829593427</v>
+        <v>-1194470.388460016</v>
       </c>
       <c r="C6" t="n">
         <v>-164473.5032467678</v>
@@ -26528,40 +26528,40 @@
         <v>-164473.5032467678</v>
       </c>
       <c r="E6" t="n">
-        <v>-555579.3449334222</v>
+        <v>-555614.0828588578</v>
       </c>
       <c r="F6" t="n">
-        <v>-48093.90330887632</v>
+        <v>-48128.64123431203</v>
       </c>
       <c r="G6" t="n">
-        <v>-48093.90330887631</v>
+        <v>-48128.64123431204</v>
       </c>
       <c r="H6" t="n">
-        <v>-48093.9033088763</v>
+        <v>-48128.64123431208</v>
       </c>
       <c r="I6" t="n">
-        <v>-48093.90330887632</v>
+        <v>-48128.64123431204</v>
       </c>
       <c r="J6" t="n">
         <v>-244117.1066425216</v>
       </c>
       <c r="K6" t="n">
-        <v>-57084.2108389073</v>
+        <v>-57084.21083890733</v>
       </c>
       <c r="L6" t="n">
-        <v>-57084.21083890728</v>
+        <v>-57084.21083890727</v>
       </c>
       <c r="M6" t="n">
         <v>-189691.504567834</v>
       </c>
       <c r="N6" t="n">
-        <v>-57084.21083890729</v>
+        <v>-57084.21083890733</v>
       </c>
       <c r="O6" t="n">
-        <v>-76511.92883253904</v>
+        <v>-76511.92883253898</v>
       </c>
       <c r="P6" t="n">
-        <v>-57084.21083890728</v>
+        <v>-57084.21083890734</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.5953784812694</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>39.32139020186457</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.48373227762595</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>137.4899200880185</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0.680976954505752</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>80.37701663882237</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>52.54142218018782</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>114.5456363768716</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>388.6201868895138</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>53.13581804317127</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>92.31108661797988</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824148</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>358.038337911826</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>364.0350380248676</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980272</v>
+        <v>341.8791195350528</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
